--- a/data/trans_bre/P35-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P35-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.337654342153622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.530099534938878</v>
+        <v>7.530099534938895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07503785003398299</v>
@@ -649,7 +649,7 @@
         <v>0.1743435269279439</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1831533222501882</v>
+        <v>0.1831533222501886</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.508208268345776</v>
+        <v>-1.329017024322057</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.615807266394209</v>
+        <v>1.474780334725858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.809711035812215</v>
+        <v>2.677486524601351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.577503574443915</v>
+        <v>2.880011169688325</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04558772117292682</v>
+        <v>-0.0408262542753688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.037326965440297</v>
+        <v>0.03775085475645357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06333125944924582</v>
+        <v>0.06116007261252624</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.05996699462003659</v>
+        <v>0.06387356678530851</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.947114744602558</v>
+        <v>6.418096616574307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.19495629761376</v>
+        <v>10.15416221303081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.09510292233273</v>
+        <v>12.33994358305706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.22824901127211</v>
+        <v>12.1736696521773</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2102215876034843</v>
+        <v>0.223342475015598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2795938622306397</v>
+        <v>0.2796088035417924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3078794776800083</v>
+        <v>0.3177032503328959</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.32624566898959</v>
+        <v>0.319636450879092</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.444839517292007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.752523341968128</v>
+        <v>3.752523341968122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3337414924865497</v>
@@ -749,7 +749,7 @@
         <v>0.2265481144190349</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1126456727695698</v>
+        <v>0.1126456727695696</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.113368528387245</v>
+        <v>1.174211197853889</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.942348951259079</v>
+        <v>3.406781133324877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.835275682542688</v>
+        <v>2.548276742166493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6918409107132819</v>
+        <v>0.6932769557814866</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09312951315552</v>
+        <v>0.09543674600764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1688649501381324</v>
+        <v>0.153077963662732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1098491748210602</v>
+        <v>0.1006669522737037</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01771003744899826</v>
+        <v>0.02016187818652065</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.069320657147641</v>
+        <v>6.211228149260556</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.621509248741058</v>
+        <v>9.593136287357277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.291640630176818</v>
+        <v>8.33101407943761</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.513994129136353</v>
+        <v>6.634282835899259</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.614185566925663</v>
+        <v>0.6203673315196657</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4820911889303221</v>
+        <v>0.4893097607721238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3615032242367668</v>
+        <v>0.3675517975102872</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2019736217091519</v>
+        <v>0.2104102066886329</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.068611022504268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.409438260257365</v>
+        <v>-4.409438260257359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.01401795571984815</v>
@@ -849,7 +849,7 @@
         <v>0.1715759535530246</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.135423808149734</v>
+        <v>-0.1354238081497338</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.369407576121033</v>
+        <v>-4.806318551318364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.399107725424305</v>
+        <v>3.150476159171431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9798008865855863</v>
+        <v>-1.666684522154603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.044831723892543</v>
+        <v>-9.180046093704838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2866721101007506</v>
+        <v>-0.327453650073475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1629933170648968</v>
+        <v>0.1332319678979037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03831208142639214</v>
+        <v>-0.06509129329093143</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2601789615000838</v>
+        <v>-0.2569774674494193</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.497522511986625</v>
+        <v>4.209268370086453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.61333023112903</v>
+        <v>15.0092626734961</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.549872267654754</v>
+        <v>9.599053286695627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2222696352766352</v>
+        <v>0.02500351944433192</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4097366360452958</v>
+        <v>0.4003345715745912</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9902887989074538</v>
+        <v>0.922420162584871</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4491662747236294</v>
+        <v>0.4608526433894182</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.007165762852403598</v>
+        <v>0.004222284377783476</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.842629912383718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.415161914993509</v>
+        <v>3.415161914993503</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2317893317649524</v>
@@ -949,7 +949,7 @@
         <v>0.2443746341064894</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09915559261665274</v>
+        <v>0.09915559261665255</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.939739534385224</v>
+        <v>2.116682764658133</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.947191478652848</v>
+        <v>6.182668546323139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.311125209755057</v>
+        <v>4.389965167642876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.304613547133081</v>
+        <v>1.270131512686666</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1047756443814707</v>
+        <v>0.1154246350310469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2188985391738852</v>
+        <v>0.2258603434831919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1502897565568741</v>
+        <v>0.150438044936206</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03672193955043907</v>
+        <v>0.03604909139066768</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.041765194379903</v>
+        <v>6.010287038515638</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.76030155576081</v>
+        <v>10.97094293421074</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.023322160693443</v>
+        <v>9.14192034364418</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.799585452298517</v>
+        <v>5.712210212985969</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3669462682954729</v>
+        <v>0.3655106662210781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4338907866142835</v>
+        <v>0.4402729989059213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3357989627980255</v>
+        <v>0.3419766616125507</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1772624451084128</v>
+        <v>0.1749631769559119</v>
       </c>
     </row>
     <row r="16">
